--- a/src/frontend/components/sheets/Template.xlsx
+++ b/src/frontend/components/sheets/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AndreyOliveira0\LeitorArquivos-Vue\src\frontend\components\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Disciplinas" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +135,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,17 +179,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,24 +484,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A16" sqref="A2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
@@ -507,36 +533,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -549,49 +578,49 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -606,48 +635,48 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="I12" sqref="A2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -661,49 +690,49 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/frontend/components/sheets/Template.xlsx
+++ b/src/frontend/components/sheets/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AndreyOliveira0\LeitorArquivos-Vue\src\frontend\components\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Disciplinas" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +132,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,33 +169,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,24 +458,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A2:J16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="19" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
@@ -533,39 +507,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -578,49 +549,49 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -635,48 +606,48 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="A2:I12"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -690,49 +661,49 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
